--- a/Outputs/Exp_ER_Run_2_exclusions/Behavior Tables/run_2_exp_ER_GroupStats.xlsx
+++ b/Outputs/Exp_ER_Run_2_exclusions/Behavior Tables/run_2_exp_ER_GroupStats.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="520" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="936" uniqueCount="20">
   <si>
     <t>Sex</t>
   </si>
